--- a/model_beef/postprocessing/20230105_final_input_output.xlsx
+++ b/model_beef/postprocessing/20230105_final_input_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11310" tabRatio="673" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="U Value &amp; Energy demand results" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="137">
   <si>
     <t>Year of construction</t>
   </si>
@@ -414,10 +414,6 @@
     <t>Building info</t>
   </si>
   <si>
-    <t>109.88 
-(Old: 159.12)</t>
-  </si>
-  <si>
     <t>104.13 (with vent update)
 81.06 (without vent update)
 80.59 (Old)</t>
@@ -426,10 +422,34 @@
     <t>Default (Buffat)</t>
   </si>
   <si>
-    <t>Calculated (only material effect)</t>
-  </si>
-  <si>
-    <t>Calculated (ventilation + material effect)</t>
+    <t xml:space="preserve">109.88 
+159.12 (Old) </t>
+  </si>
+  <si>
+    <t>167.97 (with vent update)
+280.31 (without vent update)
+230.77 (Old)</t>
+  </si>
+  <si>
+    <t>Reported (Viola)</t>
+  </si>
+  <si>
+    <t>75.65 (with vent update)
+104.76 (Old)</t>
+  </si>
+  <si>
+    <t>32.03 (with vent update)
+170.87 (Old)</t>
+  </si>
+  <si>
+    <t>70.68 (with vent update)
+119.39 (Old)</t>
+  </si>
+  <si>
+    <t>Calculated (ventilation + material updated)</t>
+  </si>
+  <si>
+    <t>Calculated (only material updated)</t>
   </si>
 </sst>
 </file>
@@ -438,7 +458,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -902,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1033,14 +1053,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1074,63 +1088,12 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1139,33 +1102,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1179,49 +1115,118 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1267,7 +1272,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Energy demand plots'!$K$36</c:f>
+              <c:f>'Energy demand plots'!$K$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1288,7 +1293,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Energy demand plots'!$I$37:$I$46</c:f>
+              <c:f>'Energy demand plots'!$I$34:$I$43</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1326,7 +1331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Energy demand plots'!$K$37:$K$46</c:f>
+              <c:f>'Energy demand plots'!$K$34:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1374,7 +1379,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Energy demand plots'!$J$36</c:f>
+              <c:f>'Energy demand plots'!$J$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1395,7 +1400,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Energy demand plots'!$I$37:$I$46</c:f>
+              <c:f>'Energy demand plots'!$I$34:$I$43</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1433,7 +1438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Energy demand plots'!$J$37:$J$46</c:f>
+              <c:f>'Energy demand plots'!$J$34:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1481,7 +1486,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Energy demand plots'!$L$36</c:f>
+              <c:f>'Energy demand plots'!$L$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1502,7 +1507,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Energy demand plots'!$I$37:$I$46</c:f>
+              <c:f>'Energy demand plots'!$I$34:$I$43</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1540,7 +1545,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Energy demand plots'!$L$37:$L$46</c:f>
+              <c:f>'Energy demand plots'!$L$34:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1867,38 +1872,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1910,11 +1884,117 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Energy demand plots'!$B$1</c:f>
+              <c:f>'Energy demand plots'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Given</c:v>
+                  <c:v>Reported (Viola)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Energy demand plots'!$A$7:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>mfh01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mfh02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfh03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfh04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mfh05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mfh06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mfh07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mfh08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mfh09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mfh10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mfh11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mfh12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Energy demand plots'!$B$7:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>129.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE32-4C92-BB93-2DA0B16DAAD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Energy demand plots'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated (ventilation + material updated)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1931,55 +2011,94 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Energy demand plots'!$A$2,'Energy demand plots'!$A$8,'Energy demand plots'!$A$11)</c:f>
+              <c:f>'Energy demand plots'!$A$7:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>mfh01</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>mfh02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfh03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfh04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mfh05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mfh06</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>mfh07</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>mfh08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mfh09</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>mfh10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mfh11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mfh12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Energy demand plots'!$B$2,'Energy demand plots'!$B$8,'Energy demand plots'!$B$11)</c:f>
+              <c:f>'Energy demand plots'!$C$7:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>129.6</c:v>
+                  <c:v>104.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>167.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>75.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD63-484D-8CCC-0997F6E57685}"/>
+              <c16:uniqueId val="{00000001-AE32-4C92-BB93-2DA0B16DAAD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Energy demand plots'!$C$1</c:f>
+              <c:f>'Energy demand plots'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Calculated (ventilation + material effect)</c:v>
+                  <c:v>Default (Buffat)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1996,169 +2115,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Energy demand plots'!$A$2,'Energy demand plots'!$A$8,'Energy demand plots'!$A$11)</c:f>
+              <c:f>'Energy demand plots'!$A$7:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>mfh01</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>mfh02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfh03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfh04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mfh05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mfh06</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>mfh07</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>mfh08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mfh09</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>mfh10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mfh11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mfh12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Energy demand plots'!$C$2,'Energy demand plots'!$C$8,'Energy demand plots'!$C$11)</c:f>
+              <c:f>'Energy demand plots'!$E$7:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>104.13</c:v>
+                  <c:v>80.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.28</c:v>
+                  <c:v>230.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD63-484D-8CCC-0997F6E57685}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calculated (only material effect)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>('Energy demand plots'!$A$2,'Energy demand plots'!$A$8,'Energy demand plots'!$A$11)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('Energy demand plots'!$D$2,'Energy demand plots'!$D$8,'Energy demand plots'!$D$11)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>81.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>109.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD63-484D-8CCC-0997F6E57685}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Default (Buffat)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>('Energy demand plots'!$A$2,'Energy demand plots'!$A$8,'Energy demand plots'!$A$11)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('Energy demand plots'!$E$2,'Energy demand plots'!$E$8,'Energy demand plots'!$E$11)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>80.59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159.12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DD63-484D-8CCC-0997F6E57685}"/>
+              <c16:uniqueId val="{00000003-AE32-4C92-BB93-2DA0B16DAAD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2172,11 +2203,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="223045744"/>
-        <c:axId val="223043120"/>
+        <c:axId val="720859208"/>
+        <c:axId val="720856256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223045744"/>
+        <c:axId val="720859208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2235,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2213,13 +2244,13 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223043120"/>
+        <c:crossAx val="720856256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2227,7 +2258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223043120"/>
+        <c:axId val="720856256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,6 +2278,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Space heating demands [MJ/ M2]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2263,7 +2355,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2272,13 +2364,13 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223045744"/>
+        <c:crossAx val="720859208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2306,7 +2398,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2315,7 +2407,7 @@
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2331,12 +2423,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2346,7 +2433,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="+mn-lt"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3451,13 +3541,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1111249</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3479,21 +3569,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3778,446 +3870,310 @@
   </sheetPr>
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="28" customWidth="1"/>
-    <col min="12" max="13" width="18.28515625" style="28" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="52" width="9.140625" style="28"/>
+    <col min="1" max="1" width="8.1796875" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="29.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" style="28" customWidth="1"/>
+    <col min="12" max="13" width="18.26953125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="52" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+    <row r="1" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="101" t="s">
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="109"/>
-    </row>
-    <row r="2" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="69" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+    </row>
+    <row r="2" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="94" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="69" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+    <row r="3" spans="1:52" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="72">
         <v>2012</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="128">
+      <c r="E3" s="98">
         <v>2350</v>
       </c>
-      <c r="F3" s="128">
+      <c r="F3" s="98">
         <v>402.7</v>
       </c>
-      <c r="G3" s="128">
+      <c r="G3" s="98">
         <v>12430</v>
       </c>
-      <c r="H3" s="129">
+      <c r="H3" s="99">
         <v>129.6</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="131"/>
-    </row>
-    <row r="4" spans="1:52" s="76" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="77" t="s">
+      <c r="I3" s="100"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="101"/>
+    </row>
+    <row r="4" spans="1:52" s="74" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="120"/>
+      <c r="B4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="75">
         <v>261</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E4" s="102">
         <v>2174.54</v>
       </c>
-      <c r="F4" s="133">
+      <c r="F4" s="102">
         <v>402.49799999999999</v>
       </c>
-      <c r="G4" s="133">
+      <c r="G4" s="102">
         <v>15221.78</v>
       </c>
-      <c r="H4" s="134" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="135">
+      <c r="H4" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="104">
         <v>0.38966822533956802</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="120">
+      <c r="J4" s="91"/>
+      <c r="K4" s="92">
         <v>0.16</v>
       </c>
-      <c r="L4" s="136">
+      <c r="L4" s="105">
         <v>0.2</v>
       </c>
-      <c r="M4" s="136">
+      <c r="M4" s="105">
         <v>1.37</v>
       </c>
-      <c r="N4" s="137"/>
-    </row>
-    <row r="5" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="N4" s="106"/>
+    </row>
+    <row r="5" spans="1:52" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="71">
         <v>2011</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="73">
         <v>190.2</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="73">
         <v>606</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="73">
         <v>350.4</v>
       </c>
-      <c r="H5" s="95">
+      <c r="H5" s="107">
         <v>106</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="114">
+      <c r="I5" s="96"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90">
         <v>0.84</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-    </row>
-    <row r="6" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="65" t="s">
+    </row>
+    <row r="6" spans="1:52" s="74" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="120"/>
+      <c r="B6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="75">
         <v>1372</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="123">
-        <v>1.4416146083613647E-4</v>
-      </c>
-      <c r="J6" s="112">
+      <c r="E6" s="76">
+        <v>146.126</v>
+      </c>
+      <c r="F6" s="76">
+        <v>453.66800000000001</v>
+      </c>
+      <c r="G6" s="76">
+        <v>270.3331</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="97">
+        <v>1.4416146083613601E-4</v>
+      </c>
+      <c r="J6" s="91">
         <v>0.105</v>
       </c>
-      <c r="K6" s="113">
+      <c r="K6" s="92">
         <v>0.127</v>
       </c>
-      <c r="L6" s="113">
+      <c r="L6" s="92">
         <v>0.121</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="92">
         <v>0.19700000000000001</v>
       </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-    </row>
-    <row r="7" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="N6" s="93"/>
+    </row>
+    <row r="7" spans="1:52" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="72">
         <v>2011</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="98">
         <v>163.4</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="98">
         <v>593.33000000000004</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="98">
         <v>374</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="107">
         <v>70</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="114">
+      <c r="I7" s="96"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90">
         <v>0.48</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-    </row>
-    <row r="8" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="65" t="s">
+    </row>
+    <row r="8" spans="1:52" s="74" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="120"/>
+      <c r="B8" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="75">
         <v>942</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="124">
+      <c r="E8" s="102">
+        <v>108.89100000000001</v>
+      </c>
+      <c r="F8" s="102">
+        <v>574.60900000000004</v>
+      </c>
+      <c r="G8" s="102">
+        <v>201.44835</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="109">
         <v>7.8933043004899298E-2</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="91">
         <v>0.11</v>
       </c>
-      <c r="K8" s="113">
+      <c r="K8" s="92">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="92">
         <v>0.1</v>
       </c>
-      <c r="M8" s="113">
+      <c r="M8" s="92">
         <v>0.1</v>
       </c>
-      <c r="N8" s="115"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="28"/>
-    </row>
-    <row r="9" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="N8" s="93"/>
+    </row>
+    <row r="9" spans="1:52" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="121" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -4229,24 +4185,24 @@
       <c r="D9" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="65">
         <v>240</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="65">
         <v>411.49</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="65">
         <v>622.20000000000005</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="79">
         <v>169.3</v>
       </c>
-      <c r="I9" s="122"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="114">
+      <c r="I9" s="94"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="86">
         <v>1.3</v>
       </c>
       <c r="O9" s="28"/>
@@ -4288,33 +4244,33 @@
       <c r="AY9" s="28"/>
       <c r="AZ9" s="28"/>
     </row>
-    <row r="10" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="65" t="s">
+    <row r="10" spans="1:52" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="122"/>
+      <c r="B10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <v>250</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="112">
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="84">
         <v>0.13</v>
       </c>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113">
+      <c r="K10" s="85"/>
+      <c r="L10" s="85">
         <v>0.21</v>
       </c>
-      <c r="M10" s="113">
+      <c r="M10" s="85">
         <v>1.85</v>
       </c>
-      <c r="N10" s="115"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -4354,8 +4310,8 @@
       <c r="AY10" s="28"/>
       <c r="AZ10" s="28"/>
     </row>
-    <row r="11" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:52" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="121" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -4367,30 +4323,30 @@
       <c r="D11" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="65">
         <v>2218</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="65">
         <v>457.75</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="65">
         <v>20400</v>
       </c>
-      <c r="H11" s="98">
+      <c r="H11" s="79">
         <v>118</v>
       </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="110">
+      <c r="I11" s="94"/>
+      <c r="J11" s="82">
         <v>0.09</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="83">
         <v>0.15</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111">
+      <c r="L11" s="83"/>
+      <c r="M11" s="83">
         <v>1.66</v>
       </c>
-      <c r="N11" s="114">
+      <c r="N11" s="86">
         <v>0.75</v>
       </c>
       <c r="O11" s="28"/>
@@ -4432,29 +4388,29 @@
       <c r="AY11" s="28"/>
       <c r="AZ11" s="28"/>
     </row>
-    <row r="12" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="65" t="s">
+    <row r="12" spans="1:52" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="122"/>
+      <c r="B12" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="64">
         <v>261</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113">
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85">
         <v>0.11</v>
       </c>
-      <c r="M12" s="113"/>
-      <c r="N12" s="115"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
@@ -4494,8 +4450,8 @@
       <c r="AY12" s="28"/>
       <c r="AZ12" s="28"/>
     </row>
-    <row r="13" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+    <row r="13" spans="1:52" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="121" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -4507,24 +4463,24 @@
       <c r="D13" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="65">
         <v>777</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="65">
         <v>500</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="65">
         <v>408</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="79">
         <v>13.3</v>
       </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="114">
+      <c r="I13" s="94"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="86">
         <v>0.5</v>
       </c>
       <c r="O13" s="28"/>
@@ -4566,37 +4522,37 @@
       <c r="AY13" s="28"/>
       <c r="AZ13" s="28"/>
     </row>
-    <row r="14" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="65" t="s">
+    <row r="14" spans="1:52" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="122"/>
+      <c r="B14" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="64">
         <v>616</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="123">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="95">
         <v>0.26548672566371684</v>
       </c>
-      <c r="J14" s="112">
+      <c r="J14" s="84">
         <v>0.1</v>
       </c>
-      <c r="K14" s="113">
+      <c r="K14" s="85">
         <v>0.08</v>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="85">
         <v>0.1</v>
       </c>
-      <c r="M14" s="113">
+      <c r="M14" s="85">
         <v>3.2</v>
       </c>
-      <c r="N14" s="115"/>
+      <c r="N14" s="87"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
@@ -4636,222 +4592,154 @@
       <c r="AY14" s="28"/>
       <c r="AZ14" s="28"/>
     </row>
-    <row r="15" spans="1:52" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+    <row r="15" spans="1:52" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="71">
         <v>2011</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="73">
         <v>1810</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="73">
         <v>418.1</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="73">
         <v>13441</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="80">
         <v>48</v>
       </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118"/>
-    </row>
-    <row r="16" spans="1:52" s="76" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="77" t="s">
+      <c r="I15" s="96"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="90"/>
+    </row>
+    <row r="16" spans="1:52" s="74" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="124"/>
+      <c r="B16" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="75">
         <v>261</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="76">
         <v>1906.35</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="76">
         <v>418.154</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="76">
         <v>13344.45</v>
       </c>
-      <c r="H16" s="100" t="s">
+      <c r="H16" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="126">
+      <c r="I16" s="97">
         <v>0.27027027027027001</v>
       </c>
-      <c r="J16" s="119">
+      <c r="J16" s="91">
         <v>0.11</v>
       </c>
-      <c r="K16" s="120">
+      <c r="K16" s="92">
         <v>0.16</v>
       </c>
-      <c r="L16" s="120">
+      <c r="L16" s="92">
         <v>0.21</v>
       </c>
-      <c r="M16" s="120">
+      <c r="M16" s="92">
         <v>0.32</v>
       </c>
-      <c r="N16" s="121"/>
-    </row>
-    <row r="17" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="N16" s="93"/>
+    </row>
+    <row r="17" spans="1:52" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="71">
         <v>2011</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="73">
         <v>375.3</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="73">
         <v>498</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="73">
         <v>1121.9000000000001</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="80">
         <v>78</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="114">
+      <c r="I17" s="96"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="90">
         <v>0.79499999999999993</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-    </row>
-    <row r="18" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="65" t="s">
+    </row>
+    <row r="18" spans="1:52" s="74" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="124"/>
+      <c r="B18" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="75">
         <v>1059</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="123">
-        <v>7.317073170731707E-5</v>
-      </c>
-      <c r="J18" s="112">
+      <c r="E18" s="76">
+        <v>374.90800000000002</v>
+      </c>
+      <c r="F18" s="76">
+        <v>492.07900000000001</v>
+      </c>
+      <c r="G18" s="76">
+        <v>1124.7239999999999</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="97">
+        <v>7.3170731707317098E-5</v>
+      </c>
+      <c r="J18" s="91">
         <v>0.1</v>
       </c>
-      <c r="K18" s="113">
+      <c r="K18" s="92">
         <v>0.23</v>
       </c>
-      <c r="L18" s="113">
+      <c r="L18" s="92">
         <v>0.1</v>
       </c>
-      <c r="M18" s="113">
+      <c r="M18" s="92">
         <v>0.1</v>
       </c>
-      <c r="N18" s="115"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-    </row>
-    <row r="19" spans="1:52" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="N18" s="93"/>
+    </row>
+    <row r="19" spans="1:52" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="121" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -4863,24 +4751,24 @@
       <c r="D19" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="65">
         <v>135.15</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="65">
         <v>805</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="65">
         <v>510.1</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="79">
         <v>42</v>
       </c>
-      <c r="I19" s="122"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="114">
+      <c r="I19" s="94"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="86">
         <v>0.84666666666666668</v>
       </c>
       <c r="O19" s="28"/>
@@ -4922,37 +4810,37 @@
       <c r="AY19" s="28"/>
       <c r="AZ19" s="28"/>
     </row>
-    <row r="20" spans="1:52" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="65" t="s">
+    <row r="20" spans="1:52" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="122"/>
+      <c r="B20" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="64">
         <v>3203</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="123">
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="95">
         <v>2.3115541589915846E-4</v>
       </c>
-      <c r="J20" s="112">
+      <c r="J20" s="84">
         <v>0.1</v>
       </c>
-      <c r="K20" s="113">
+      <c r="K20" s="85">
         <v>0.19</v>
       </c>
-      <c r="L20" s="113">
+      <c r="L20" s="85">
         <v>0.11</v>
       </c>
-      <c r="M20" s="113">
+      <c r="M20" s="85">
         <v>0.18</v>
       </c>
-      <c r="N20" s="115"/>
+      <c r="N20" s="87"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
@@ -4992,222 +4880,154 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="28"/>
     </row>
-    <row r="21" spans="1:52" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+    <row r="21" spans="1:52" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="71">
         <v>2012</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="73">
         <v>411</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="73">
         <v>440</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="73">
         <v>1120</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="80">
         <v>115</v>
       </c>
-      <c r="I21" s="125"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118">
+      <c r="I21" s="96"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="90">
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:52" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="77" t="s">
+    <row r="22" spans="1:52" s="74" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="124"/>
+      <c r="B22" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="75">
         <v>261</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="76">
         <v>401.33600000000001</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="76">
         <v>461.774</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="76">
         <v>1143.8076000000001</v>
       </c>
-      <c r="H22" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="126"/>
-      <c r="J22" s="119">
+      <c r="H22" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="97"/>
+      <c r="J22" s="91">
         <v>0.17</v>
       </c>
-      <c r="K22" s="120">
+      <c r="K22" s="92">
         <v>0.18</v>
       </c>
-      <c r="L22" s="120">
+      <c r="L22" s="92">
         <v>0.15</v>
       </c>
-      <c r="M22" s="120">
+      <c r="M22" s="92">
         <v>0.18</v>
       </c>
-      <c r="N22" s="121"/>
-    </row>
-    <row r="23" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="N22" s="93"/>
+    </row>
+    <row r="23" spans="1:52" s="74" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="71">
         <v>2012</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="73">
         <v>665</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="73">
         <v>565</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="73">
         <v>2966</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="80">
         <v>23</v>
       </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="114">
+      <c r="I23" s="96"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90">
         <v>1.3466666666666667</v>
       </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-    </row>
-    <row r="24" spans="1:52" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="65" t="s">
+    </row>
+    <row r="24" spans="1:52" s="74" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="124"/>
+      <c r="B24" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="75">
         <v>942</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="123">
+      <c r="E24" s="76">
+        <v>525.327</v>
+      </c>
+      <c r="F24" s="76">
+        <v>557.52099999999996</v>
+      </c>
+      <c r="G24" s="76">
+        <v>2101.308</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="97">
         <v>0.57991513437057995</v>
       </c>
-      <c r="J24" s="112">
+      <c r="J24" s="91">
         <v>0.1</v>
       </c>
-      <c r="K24" s="113">
+      <c r="K24" s="92">
         <v>0.51</v>
       </c>
-      <c r="L24" s="113">
+      <c r="L24" s="92">
         <v>0.1</v>
       </c>
-      <c r="M24" s="113">
+      <c r="M24" s="92">
         <v>0.16</v>
       </c>
-      <c r="N24" s="115"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-    </row>
-    <row r="25" spans="1:52" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
+      <c r="N24" s="93"/>
+    </row>
+    <row r="25" spans="1:52" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="121" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -5219,24 +5039,24 @@
       <c r="D25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="65">
         <v>168.75</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="65">
         <v>556</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="65">
         <v>1170</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="79">
         <v>28.1</v>
       </c>
-      <c r="I25" s="122"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="114">
+      <c r="I25" s="94"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="86">
         <v>0.69999999999999984</v>
       </c>
       <c r="O25" s="28"/>
@@ -5278,37 +5098,37 @@
       <c r="AY25" s="28"/>
       <c r="AZ25" s="28"/>
     </row>
-    <row r="26" spans="1:52" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="65" t="s">
+    <row r="26" spans="1:52" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="122"/>
+      <c r="B26" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="64">
         <v>1061</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="123">
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="95">
         <v>8.516436722875149E-5</v>
       </c>
-      <c r="J26" s="112">
+      <c r="J26" s="84">
         <v>0.08</v>
       </c>
-      <c r="K26" s="113">
+      <c r="K26" s="85">
         <v>0.127</v>
       </c>
-      <c r="L26" s="113">
+      <c r="L26" s="85">
         <v>0.11</v>
       </c>
-      <c r="M26" s="113">
+      <c r="M26" s="85">
         <v>0.1</v>
       </c>
-      <c r="N26" s="115"/>
+      <c r="N26" s="87"/>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
@@ -5348,91 +5168,81 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="28"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>0.38966822533956802</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>1.4416146083613647E-4</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C39">
         <v>7.8933043004899298E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C45">
         <v>0.26548672566371684</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C47" s="28">
         <v>0.27027027027027029</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C48" s="28"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="28">
         <v>7.317073170731707E-5</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" s="28"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" s="28">
         <v>2.3115541589915846E-4</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" s="28"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" s="28"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" s="28"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C55" s="28">
         <v>0.57991513437057995</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C56" s="28"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C57" s="28">
         <v>8.516436722875149E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A11:A12"/>
@@ -5440,6 +5250,16 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5451,767 +5271,904 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="138"/>
-      <c r="B1" s="138" t="s">
+    <row r="1" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="108"/>
+      <c r="B6" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="108">
+        <v>129.6</v>
+      </c>
+      <c r="C7" s="108">
+        <v>104.13</v>
+      </c>
+      <c r="D7" s="108">
+        <v>81.06</v>
+      </c>
+      <c r="E7" s="108">
+        <v>80.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="108">
+        <v>106</v>
+      </c>
+      <c r="C8" s="108">
+        <v>167.97</v>
+      </c>
+      <c r="D8" s="108">
+        <v>280.31</v>
+      </c>
+      <c r="E8" s="108">
+        <v>230.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="108">
+        <v>70</v>
+      </c>
+      <c r="C9" s="108">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108">
+        <v>104.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+    </row>
+    <row r="11" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+    </row>
+    <row r="12" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+    </row>
+    <row r="13" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="108">
+        <v>48</v>
+      </c>
+      <c r="C13" s="108">
+        <v>43.28</v>
+      </c>
+      <c r="D13" s="108">
+        <v>35.49</v>
+      </c>
+      <c r="E13" s="108">
+        <v>42.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="108">
+        <v>78</v>
+      </c>
+      <c r="C14" s="108">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108">
+        <v>119.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="108">
+        <v>115</v>
+      </c>
+      <c r="C16" s="50">
+        <v>109.88</v>
+      </c>
+      <c r="D16" s="108">
+        <v>109.88</v>
+      </c>
+      <c r="E16" s="108">
+        <v>159.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="108">
+        <v>23</v>
+      </c>
+      <c r="C17" s="108">
+        <v>32.03</v>
+      </c>
+      <c r="E17" s="108">
+        <v>170.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="138" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="138" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>129.25</v>
+      </c>
+      <c r="D30">
+        <v>84.77</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="C31">
+        <v>13.92</v>
+      </c>
+      <c r="D31">
+        <v>10.97</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:E41" si="0">ABS($B31-C31)/$B31</f>
+        <v>0.15041322314049591</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" ref="F31:F41" si="1">ABS($B31-D31)/$B31</f>
+        <v>9.3388429752066029E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>45.43</v>
+      </c>
+      <c r="D32">
+        <v>15.54</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89291666666666669</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35250000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>18.36</v>
+      </c>
+      <c r="C33">
+        <v>9.11</v>
+      </c>
+      <c r="D33">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50381263616557737</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51143790849673199</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="C34">
+        <v>16.38</v>
+      </c>
+      <c r="D34">
+        <v>4.32</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61428571428571421</v>
+      </c>
+      <c r="I34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="138">
-        <v>129.6</v>
-      </c>
-      <c r="C2" s="138">
-        <v>104.13</v>
-      </c>
-      <c r="D2" s="138">
-        <v>81.06</v>
-      </c>
-      <c r="E2" s="138">
-        <v>80.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="138" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="138">
-        <v>48</v>
-      </c>
-      <c r="C8" s="138">
-        <v>43.28</v>
-      </c>
-      <c r="D8" s="138">
-        <v>35.49</v>
-      </c>
-      <c r="E8" s="138">
-        <v>42.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="138">
-        <v>115</v>
-      </c>
-      <c r="D11" s="138">
-        <v>109.88</v>
-      </c>
-      <c r="E11" s="138">
-        <v>159.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="J34" s="61">
+        <v>116.4</v>
+      </c>
+      <c r="K34" s="61">
+        <v>67.91</v>
+      </c>
+      <c r="L34" s="61">
+        <v>14.4</v>
+      </c>
+      <c r="M34" s="2">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3.7159722222222218</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" ref="O34:O43" si="2">M34-N34</f>
+        <v>3.3673611111111112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-    </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>129.25</v>
-      </c>
-      <c r="D33">
-        <v>84.77</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="C34">
-        <v>13.92</v>
-      </c>
-      <c r="D34">
-        <v>10.97</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:E44" si="0">ABS($B34-C34)/$B34</f>
-        <v>0.15041322314049591</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" ref="F34:F44" si="1">ABS($B34-D34)/$B34</f>
-        <v>9.3388429752066029E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
       <c r="B35" s="2">
-        <v>24</v>
+        <v>7.56</v>
       </c>
       <c r="C35">
-        <v>45.43</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>15.54</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="61">
+        <v>45.43</v>
+      </c>
+      <c r="K35" s="61">
+        <v>15.54</v>
+      </c>
+      <c r="L35" s="61">
+        <v>24</v>
+      </c>
+      <c r="M35" s="2">
         <v>0.89291666666666669</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="1"/>
+      <c r="N35" s="2">
         <v>0.35250000000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.54041666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2">
-        <v>18.36</v>
+        <v>11.9</v>
       </c>
       <c r="C36">
-        <v>9.11</v>
+        <v>50.87</v>
       </c>
       <c r="D36">
-        <v>8.9700000000000006</v>
+        <v>29.38</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>0.50381263616557737</v>
+        <v>3.2747899159663865</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>0.51143790849673199</v>
+        <v>1.4689075630252098</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M36" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J36" s="61">
+        <v>236.91</v>
+      </c>
+      <c r="K36" s="61">
+        <v>127.3</v>
+      </c>
+      <c r="L36" s="61">
+        <v>3.3</v>
+      </c>
+      <c r="M36" s="2">
+        <v>70.790909090909096</v>
+      </c>
+      <c r="N36" s="2">
+        <v>37.575757575757578</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="2"/>
+        <v>33.215151515151518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2">
-        <v>11.2</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>16.38</v>
+        <v>147.25</v>
       </c>
       <c r="D37">
-        <v>4.32</v>
+        <v>61.98</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="F37" s="2">
+        <v>5.135416666666667</v>
+      </c>
+      <c r="F37" s="5">
         <f t="shared" si="1"/>
-        <v>0.61428571428571421</v>
+        <v>1.5824999999999998</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J37" s="61">
-        <v>116.4</v>
+        <v>9.11</v>
       </c>
       <c r="K37" s="61">
-        <v>67.91</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="L37" s="61">
-        <v>14.4</v>
+        <v>18.36</v>
       </c>
       <c r="M37" s="2">
-        <v>7.083333333333333</v>
+        <v>0.50381263616557737</v>
       </c>
       <c r="N37" s="2">
-        <v>3.7159722222222218</v>
+        <v>0.51143790849673199</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" ref="O37:O46" si="2">M37-N37</f>
-        <v>3.3673611111111112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-7.62527233115462E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
-        <v>7.56</v>
+        <v>27.8</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>107.31</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>104.17</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
+        <v>2.8600719424460435</v>
+      </c>
+      <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.7471223021582736</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J38" s="61">
-        <v>45.43</v>
+        <v>277.99</v>
       </c>
       <c r="K38" s="61">
-        <v>15.54</v>
+        <v>81.7</v>
       </c>
       <c r="L38" s="61">
-        <v>24</v>
+        <v>3.3</v>
       </c>
       <c r="M38" s="2">
-        <v>0.89291666666666669</v>
+        <v>83.239393939393949</v>
       </c>
       <c r="N38" s="2">
-        <v>0.35250000000000004</v>
+        <v>63.806060606060612</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="2"/>
-        <v>0.54041666666666666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19.433333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
-        <v>11.9</v>
+        <v>14.4</v>
       </c>
       <c r="C39">
-        <v>50.87</v>
+        <v>116.4</v>
       </c>
       <c r="D39">
-        <v>29.38</v>
+        <v>67.91</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>3.2747899159663865</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="1"/>
-        <v>1.4689075630252098</v>
+        <v>3.7159722222222218</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J39" s="61">
-        <v>236.91</v>
+        <v>13.92</v>
       </c>
       <c r="K39" s="61">
-        <v>127.3</v>
+        <v>10.97</v>
       </c>
       <c r="L39" s="61">
-        <v>3.3</v>
+        <v>12.1</v>
       </c>
       <c r="M39" s="2">
-        <v>70.790909090909096</v>
+        <v>0.15041322314049591</v>
       </c>
       <c r="N39" s="2">
-        <v>37.575757575757578</v>
+        <v>9.3388429752066029E-2</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="2"/>
-        <v>33.215151515151518</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.7024793388429876E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B40" s="2">
-        <v>24</v>
+        <v>3.3</v>
       </c>
       <c r="C40">
-        <v>147.25</v>
+        <v>236.91</v>
       </c>
       <c r="D40">
-        <v>61.98</v>
+        <v>127.3</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>5.135416666666667</v>
+        <v>70.790909090909096</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="1"/>
+        <v>37.575757575757578</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="61">
+        <v>147.25</v>
+      </c>
+      <c r="K40" s="61">
+        <v>61.98</v>
+      </c>
+      <c r="L40" s="61">
+        <v>24</v>
+      </c>
+      <c r="M40" s="2">
+        <v>5.135416666666667</v>
+      </c>
+      <c r="N40" s="2">
         <v>1.5824999999999998</v>
-      </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="61">
-        <v>9.11</v>
-      </c>
-      <c r="K40" s="61">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="L40" s="61">
-        <v>18.36</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0.50381263616557737</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0.51143790849673199</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="2"/>
-        <v>-7.62527233115462E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.5529166666666674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>27.8</v>
+        <v>3.3</v>
       </c>
       <c r="C41">
-        <v>107.31</v>
+        <v>277.99</v>
       </c>
       <c r="D41">
-        <v>104.17</v>
+        <v>213.86</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>2.8600719424460435</v>
+        <v>83.239393939393949</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>2.7471223021582736</v>
+        <v>63.806060606060612</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J41" s="61">
-        <v>277.99</v>
+        <v>16.38</v>
       </c>
       <c r="K41" s="61">
-        <v>81.7</v>
+        <v>4.32</v>
       </c>
       <c r="L41" s="61">
-        <v>3.3</v>
+        <v>11.2</v>
       </c>
       <c r="M41" s="2">
-        <v>83.239393939393949</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="N41" s="2">
-        <v>63.806060606060612</v>
+        <v>0.61428571428571421</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="2"/>
-        <v>19.433333333333337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="C42">
-        <v>116.4</v>
-      </c>
-      <c r="D42">
-        <v>67.91</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>7.083333333333333</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="1"/>
-        <v>3.7159722222222218</v>
-      </c>
+        <v>-0.15178571428571419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J42" s="61">
-        <v>13.92</v>
+        <v>107.31</v>
       </c>
       <c r="K42" s="61">
-        <v>10.97</v>
+        <v>104.17</v>
       </c>
       <c r="L42" s="61">
-        <v>12.1</v>
+        <v>27.8</v>
       </c>
       <c r="M42" s="2">
-        <v>0.15041322314049591</v>
+        <v>2.8600719424460435</v>
       </c>
       <c r="N42" s="2">
-        <v>9.3388429752066029E-2</v>
+        <v>2.7471223021582736</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="2"/>
-        <v>5.7024793388429876E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11294964028776988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="C43">
-        <v>236.91</v>
-      </c>
-      <c r="D43">
-        <v>127.3</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>70.790909090909096</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="1"/>
-        <v>37.575757575757578</v>
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J43" s="61">
-        <v>147.25</v>
+        <v>50.87</v>
       </c>
       <c r="K43" s="61">
-        <v>61.98</v>
+        <v>29.38</v>
       </c>
       <c r="L43" s="61">
-        <v>24</v>
+        <v>11.9</v>
       </c>
       <c r="M43" s="2">
-        <v>5.135416666666667</v>
+        <v>3.2747899159663865</v>
       </c>
       <c r="N43" s="2">
-        <v>1.5824999999999998</v>
+        <v>1.4689075630252098</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="2"/>
-        <v>3.5529166666666674</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.8058823529411767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3.3</v>
+        <v>26</v>
+      </c>
+      <c r="B44">
+        <v>129.25</v>
       </c>
       <c r="C44">
-        <v>277.99</v>
-      </c>
-      <c r="D44">
-        <v>213.86</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>83.239393939393949</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="1"/>
-        <v>63.806060606060612</v>
-      </c>
-      <c r="I44" t="s">
+        <v>84.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>13.92</v>
+      </c>
+      <c r="C45">
+        <v>10.97</v>
+      </c>
+      <c r="D45">
+        <v>12.1</v>
+      </c>
+      <c r="E45">
+        <v>0.15041322314049591</v>
+      </c>
+      <c r="F45">
+        <v>9.3388429752066029E-2</v>
+      </c>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>45.43</v>
+      </c>
+      <c r="C46">
+        <v>15.54</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>0.89291666666666669</v>
+      </c>
+      <c r="F46">
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>9.11</v>
+      </c>
+      <c r="C47">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D47">
+        <v>18.36</v>
+      </c>
+      <c r="E47">
+        <v>0.50381263616557737</v>
+      </c>
+      <c r="F47">
+        <v>0.51143790849673199</v>
+      </c>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="61">
+      <c r="B48">
         <v>16.38</v>
       </c>
-      <c r="K44" s="61">
+      <c r="C48">
         <v>4.32</v>
       </c>
-      <c r="L44" s="61">
+      <c r="D48">
         <v>11.2</v>
       </c>
-      <c r="M44" s="2">
+      <c r="E48">
         <v>0.46250000000000002</v>
       </c>
-      <c r="N44" s="2">
+      <c r="F48">
         <v>0.61428571428571421</v>
-      </c>
-      <c r="O44" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.15178571428571419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="61">
-        <v>107.31</v>
-      </c>
-      <c r="K45" s="61">
-        <v>104.17</v>
-      </c>
-      <c r="L45" s="61">
-        <v>27.8</v>
-      </c>
-      <c r="M45" s="2">
-        <v>2.8600719424460435</v>
-      </c>
-      <c r="N45" s="2">
-        <v>2.7471223021582736</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" si="2"/>
-        <v>0.11294964028776988</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="61">
-        <v>50.87</v>
-      </c>
-      <c r="K46" s="61">
-        <v>29.38</v>
-      </c>
-      <c r="L46" s="61">
-        <v>11.9</v>
-      </c>
-      <c r="M46" s="2">
-        <v>3.2747899159663865</v>
-      </c>
-      <c r="N46" s="2">
-        <v>1.4689075630252098</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8058823529411767</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47">
-        <v>129.25</v>
-      </c>
-      <c r="C47">
-        <v>84.77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48">
-        <v>13.92</v>
-      </c>
-      <c r="C48">
-        <v>10.97</v>
-      </c>
-      <c r="D48">
-        <v>12.1</v>
-      </c>
-      <c r="E48">
-        <v>0.15041322314049591</v>
-      </c>
-      <c r="F48">
-        <v>9.3388429752066029E-2</v>
       </c>
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B49">
-        <v>45.43</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>15.54</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>7.56</v>
       </c>
       <c r="E49">
-        <v>0.89291666666666669</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0.35250000000000004</v>
+        <v>1</v>
       </c>
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
@@ -6226,24 +6183,24 @@
       <c r="R49" s="50"/>
       <c r="S49" s="50"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B50">
-        <v>9.11</v>
+        <v>50.87</v>
       </c>
       <c r="C50">
-        <v>8.9700000000000006</v>
+        <v>29.38</v>
       </c>
       <c r="D50">
-        <v>18.36</v>
+        <v>11.9</v>
       </c>
       <c r="E50">
-        <v>0.50381263616557737</v>
+        <v>3.2747899159663865</v>
       </c>
       <c r="F50">
-        <v>0.51143790849673199</v>
+        <v>1.4689075630252098</v>
       </c>
       <c r="H50" s="50"/>
       <c r="I50" s="50"/>
@@ -6258,24 +6215,24 @@
       <c r="R50" s="50"/>
       <c r="S50" s="50"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>16.38</v>
+        <v>147.25</v>
       </c>
       <c r="C51">
-        <v>4.32</v>
+        <v>61.98</v>
       </c>
       <c r="D51">
-        <v>11.2</v>
+        <v>24</v>
       </c>
       <c r="E51">
-        <v>0.46250000000000002</v>
+        <v>5.135416666666667</v>
       </c>
       <c r="F51">
-        <v>0.61428571428571421</v>
+        <v>1.5824999999999998</v>
       </c>
       <c r="H51" s="50"/>
       <c r="I51" s="50"/>
@@ -6290,24 +6247,24 @@
       <c r="R51" s="50"/>
       <c r="S51" s="50"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>107.31</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>104.17</v>
       </c>
       <c r="D52">
-        <v>7.56</v>
+        <v>27.8</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2.8600719424460435</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2.7471223021582736</v>
       </c>
       <c r="H52" s="50"/>
       <c r="I52" s="50"/>
@@ -6322,24 +6279,24 @@
       <c r="R52" s="50"/>
       <c r="S52" s="50"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>50.87</v>
+        <v>116.4</v>
       </c>
       <c r="C53">
-        <v>29.38</v>
+        <v>67.91</v>
       </c>
       <c r="D53">
-        <v>11.9</v>
+        <v>14.4</v>
       </c>
       <c r="E53">
-        <v>3.2747899159663865</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="F53">
-        <v>1.4689075630252098</v>
+        <v>3.7159722222222218</v>
       </c>
       <c r="H53" s="50"/>
       <c r="I53" s="50"/>
@@ -6354,24 +6311,24 @@
       <c r="R53" s="50"/>
       <c r="S53" s="50"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>147.25</v>
+        <v>236.91</v>
       </c>
       <c r="C54">
-        <v>61.98</v>
+        <v>127.3</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>3.3</v>
       </c>
       <c r="E54">
-        <v>5.135416666666667</v>
+        <v>70.790909090909096</v>
       </c>
       <c r="F54">
-        <v>1.5824999999999998</v>
+        <v>37.575757575757578</v>
       </c>
       <c r="H54" s="50"/>
       <c r="I54" s="50"/>
@@ -6386,24 +6343,24 @@
       <c r="R54" s="50"/>
       <c r="S54" s="50"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B55">
-        <v>107.31</v>
+        <v>277.99</v>
       </c>
       <c r="C55">
-        <v>104.17</v>
+        <v>213.86</v>
       </c>
       <c r="D55">
-        <v>27.8</v>
+        <v>3.3</v>
       </c>
       <c r="E55">
-        <v>2.8600719424460435</v>
+        <v>83.239393939393949</v>
       </c>
       <c r="F55">
-        <v>2.7471223021582736</v>
+        <v>63.806060606060612</v>
       </c>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
@@ -6418,25 +6375,7 @@
       <c r="R55" s="50"/>
       <c r="S55" s="50"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56">
-        <v>116.4</v>
-      </c>
-      <c r="C56">
-        <v>67.91</v>
-      </c>
-      <c r="D56">
-        <v>14.4</v>
-      </c>
-      <c r="E56">
-        <v>7.083333333333333</v>
-      </c>
-      <c r="F56">
-        <v>3.7159722222222218</v>
-      </c>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H56" s="50"/>
       <c r="I56" s="50"/>
       <c r="J56" s="50"/>
@@ -6450,25 +6389,7 @@
       <c r="R56" s="50"/>
       <c r="S56" s="50"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57">
-        <v>236.91</v>
-      </c>
-      <c r="C57">
-        <v>127.3</v>
-      </c>
-      <c r="D57">
-        <v>3.3</v>
-      </c>
-      <c r="E57">
-        <v>70.790909090909096</v>
-      </c>
-      <c r="F57">
-        <v>37.575757575757578</v>
-      </c>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H57" s="50"/>
       <c r="I57" s="50"/>
       <c r="J57" s="50"/>
@@ -6482,25 +6403,7 @@
       <c r="R57" s="50"/>
       <c r="S57" s="50"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58">
-        <v>277.99</v>
-      </c>
-      <c r="C58">
-        <v>213.86</v>
-      </c>
-      <c r="D58">
-        <v>3.3</v>
-      </c>
-      <c r="E58">
-        <v>83.239393939393949</v>
-      </c>
-      <c r="F58">
-        <v>63.806060606060612</v>
-      </c>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H58" s="50"/>
       <c r="I58" s="50"/>
       <c r="J58" s="50"/>
@@ -6514,7 +6417,7 @@
       <c r="R58" s="50"/>
       <c r="S58" s="50"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
       <c r="J59" s="50"/>
@@ -6528,7 +6431,7 @@
       <c r="R59" s="50"/>
       <c r="S59" s="50"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H60" s="50"/>
       <c r="I60" s="50"/>
       <c r="J60" s="50"/>
@@ -6542,7 +6445,7 @@
       <c r="R60" s="50"/>
       <c r="S60" s="50"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
       <c r="J61" s="50"/>
@@ -6556,7 +6459,7 @@
       <c r="R61" s="50"/>
       <c r="S61" s="50"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H62" s="50"/>
       <c r="I62" s="50"/>
       <c r="J62" s="50"/>
@@ -6570,7 +6473,7 @@
       <c r="R62" s="50"/>
       <c r="S62" s="50"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
       <c r="J63" s="50"/>
@@ -6584,7 +6487,7 @@
       <c r="R63" s="50"/>
       <c r="S63" s="50"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H64" s="50"/>
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
@@ -6598,7 +6501,7 @@
       <c r="R64" s="50"/>
       <c r="S64" s="50"/>
     </row>
-    <row r="65" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H65" s="50"/>
       <c r="I65" s="50"/>
       <c r="J65" s="50"/>
@@ -6612,54 +6515,12 @@
       <c r="R65" s="50"/>
       <c r="S65" s="50"/>
     </row>
-    <row r="66" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H66" s="50"/>
       <c r="I66" s="50"/>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-    </row>
-    <row r="67" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
-    </row>
-    <row r="68" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-    </row>
-    <row r="69" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
     </row>
   </sheetData>
   <sortState ref="I6:O15">
@@ -6681,18 +6542,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="90.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -6700,7 +6561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
@@ -6708,7 +6569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -6716,52 +6577,52 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
@@ -6793,24 +6654,24 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="11"/>
-    <col min="2" max="2" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="11"/>
+    <col min="2" max="2" width="15.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="11" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" style="11" customWidth="1"/>
     <col min="11" max="15" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="11"/>
+    <col min="16" max="16" width="20.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>73</v>
       </c>
@@ -6824,7 +6685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12" t="s">
         <v>75</v>
@@ -6880,7 +6741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -6915,7 +6776,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -6952,7 +6813,7 @@
       </c>
       <c r="P4" s="23"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -6990,7 +6851,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -7035,7 +6896,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -7077,7 +6938,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -7115,7 +6976,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
@@ -7155,7 +7016,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -7199,7 +7060,7 @@
       <c r="P10" s="23"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -7249,7 +7110,7 @@
       <c r="P11" s="23"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>32</v>
       </c>
@@ -7305,7 +7166,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -7355,7 +7216,7 @@
       <c r="P13" s="23"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -7405,7 +7266,7 @@
       <c r="P14" s="23"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -7421,7 +7282,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7437,7 +7298,7 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -7453,7 +7314,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="G23" s="9"/>
       <c r="I23" s="9"/>
@@ -7462,7 +7323,7 @@
       <c r="L23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -7473,7 +7334,7 @@
       <c r="L24" s="9"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="G25" s="13"/>
       <c r="I25" s="13"/>
@@ -7482,20 +7343,20 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -7519,48 +7380,48 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="50"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="50"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="50" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" s="50" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88" t="s">
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="132" t="s">
         <v>90</v>
       </c>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="59"/>
       <c r="C3" s="53"/>
       <c r="D3" s="43" t="s">
@@ -7582,11 +7443,11 @@
       <c r="J3" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="93"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="133"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="37" t="s">
         <v>29</v>
       </c>
@@ -7616,7 +7477,7 @@
       </c>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="39" t="s">
         <v>32</v>
       </c>
@@ -7649,8 +7510,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" s="50" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="45" t="s">
         <v>101</v>
       </c>
@@ -7668,7 +7529,7 @@
       <c r="J7" s="50"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
@@ -7685,7 +7546,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="39" t="s">
         <v>32</v>
       </c>
@@ -7702,12 +7563,12 @@
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="2:13" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="60"/>
       <c r="C12" s="60" t="s">
         <v>108</v>
@@ -7722,7 +7583,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="60" t="s">
         <v>29</v>
       </c>
@@ -7739,7 +7600,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="60" t="s">
         <v>32</v>
       </c>
@@ -7756,7 +7617,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="37" t="s">
         <v>23</v>
       </c>
@@ -7786,7 +7647,7 @@
       </c>
       <c r="M17" s="28"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="37" t="s">
         <v>26</v>
       </c>
